--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang2/03.BaoGiaBH/BG210226_Techglobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang2/03.BaoGiaBH/BG210226_Techglobal.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -107,12 +107,6 @@
     <t>TG007X</t>
   </si>
   <si>
-    <t>VT_Module_SIM868</t>
-  </si>
-  <si>
-    <t>Module GSM/GPS</t>
-  </si>
-  <si>
     <t>VT_DIODE_SMCJ45A</t>
   </si>
   <si>
@@ -131,25 +125,10 @@
     <t>TG007S</t>
   </si>
   <si>
-    <t>TG102</t>
-  </si>
-  <si>
     <t>VT_Module_M-9129</t>
   </si>
   <si>
     <t>Module GPS</t>
-  </si>
-  <si>
-    <t>VT_IC_STM32F103VCT6</t>
-  </si>
-  <si>
-    <t>MCU</t>
-  </si>
-  <si>
-    <t>VT_IC_MAX3232EIDR</t>
-  </si>
-  <si>
-    <t>MAX3232EIDR</t>
   </si>
   <si>
     <t>TG007</t>
@@ -165,7 +144,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,12 +250,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -292,7 +265,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -632,17 +605,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -653,7 +615,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -734,6 +696,54 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -775,72 +785,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1196,10 +1140,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA51"/>
+  <dimension ref="A1:AA47"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="84" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A16" sqref="A16:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1227,94 +1171,94 @@
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
     </row>
     <row r="3" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="47"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="63"/>
     </row>
     <row r="4" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="40"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="56"/>
     </row>
     <row r="5" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="43"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="59"/>
     </row>
     <row r="6" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="35" t="s">
+      <c r="A6" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="37"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="53"/>
     </row>
     <row r="7" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
       <c r="G7" s="12"/>
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
@@ -1322,10 +1266,10 @@
     </row>
     <row r="8" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="55"/>
+      <c r="C8" s="43"/>
       <c r="D8" s="25"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
@@ -1336,13 +1280,13 @@
     </row>
     <row r="9" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
       <c r="G9" s="13"/>
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
@@ -1350,10 +1294,10 @@
     </row>
     <row r="10" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="55"/>
+      <c r="C10" s="43"/>
       <c r="D10" s="25"/>
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
@@ -1365,10 +1309,10 @@
     </row>
     <row r="11" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="56"/>
+      <c r="C11" s="44"/>
       <c r="D11" s="26"/>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
@@ -1419,7 +1363,7 @@
         <v>27</v>
       </c>
       <c r="C13" s="33">
-        <v>868183034664677</v>
+        <v>868183033787784</v>
       </c>
       <c r="D13" s="32" t="s">
         <v>23</v>
@@ -1437,31 +1381,31 @@
         <v>1</v>
       </c>
       <c r="I13" s="29">
-        <v>200000</v>
+        <v>10000</v>
       </c>
       <c r="J13" s="29">
-        <v>200000</v>
+        <v>10000</v>
       </c>
       <c r="AA13" s="15"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="32">
+      <c r="A14" s="38">
         <v>2</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C14" s="33">
-        <v>868183033787784</v>
+        <v>866104022165560</v>
       </c>
       <c r="D14" s="32" t="s">
         <v>23</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G14" s="31" t="s">
         <v>24</v>
@@ -1470,31 +1414,31 @@
         <v>1</v>
       </c>
       <c r="I14" s="29">
-        <v>10000</v>
+        <v>220000</v>
       </c>
       <c r="J14" s="29">
-        <v>10000</v>
+        <v>220000</v>
       </c>
       <c r="AA14" s="15"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="32">
+      <c r="A15" s="38">
         <v>3</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" s="33">
-        <v>866104022165560</v>
+        <v>863586032937611</v>
       </c>
       <c r="D15" s="32" t="s">
         <v>23</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G15" s="31" t="s">
         <v>24</v>
@@ -1511,23 +1455,23 @@
       <c r="AA15" s="15"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="32">
+      <c r="A16" s="38">
         <v>4</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C16" s="33">
-        <v>863586032937611</v>
+        <v>86520903436447</v>
       </c>
       <c r="D16" s="32" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G16" s="31" t="s">
         <v>24</v>
@@ -1536,365 +1480,245 @@
         <v>1</v>
       </c>
       <c r="I16" s="29">
-        <v>220000</v>
+        <v>10000</v>
       </c>
       <c r="J16" s="29">
-        <v>220000</v>
+        <v>10000</v>
       </c>
       <c r="AA16" s="15"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="32">
+      <c r="A17" s="38">
         <v>5</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" s="33">
-        <v>86520903436447</v>
+        <v>861693037610086</v>
       </c>
       <c r="D17" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="31" t="s">
+      <c r="E17" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="31">
+      <c r="H17" s="36">
         <v>1</v>
       </c>
-      <c r="I17" s="29">
-        <v>10000</v>
-      </c>
-      <c r="J17" s="29">
-        <v>10000</v>
+      <c r="I17" s="37">
+        <v>310000</v>
+      </c>
+      <c r="J17" s="37">
+        <v>310000</v>
       </c>
       <c r="AA17" s="15"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="64">
+    <row r="18" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="30">
+        <f>SUM(J13:J17)</f>
+        <v>770000</v>
+      </c>
+      <c r="AA18" s="15"/>
+    </row>
+    <row r="19" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="28"/>
+      <c r="AA19" s="15"/>
+    </row>
+    <row r="20" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="27"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="28"/>
+      <c r="AA20" s="15"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="E21" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="24"/>
+      <c r="AA21" s="15"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A22" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="67">
-        <v>865904020081524</v>
-      </c>
-      <c r="D18" s="64" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="61">
-        <v>1</v>
-      </c>
-      <c r="I18" s="62">
-        <v>310000</v>
-      </c>
-      <c r="J18" s="62">
-        <v>310000</v>
-      </c>
-      <c r="AA18" s="15"/>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="65"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="63">
-        <v>1</v>
-      </c>
-      <c r="I19" s="62">
-        <v>190000</v>
-      </c>
-      <c r="J19" s="62">
-        <v>190000</v>
-      </c>
-      <c r="AA19" s="15"/>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="66"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="63">
-        <v>1</v>
-      </c>
-      <c r="I20" s="62">
-        <v>30000</v>
-      </c>
-      <c r="J20" s="62">
-        <v>30000</v>
-      </c>
-      <c r="AA20" s="15"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" s="32">
-        <v>7</v>
-      </c>
-      <c r="B21" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="33">
-        <v>861693037610086</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" s="61">
-        <v>1</v>
-      </c>
-      <c r="I21" s="62">
-        <v>310000</v>
-      </c>
-      <c r="J21" s="62">
-        <v>310000</v>
-      </c>
-      <c r="AA21" s="15"/>
-    </row>
-    <row r="22" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="30">
-        <f>SUM(J13:J21)</f>
-        <v>1500000</v>
-      </c>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
       <c r="AA22" s="15"/>
     </row>
-    <row r="23" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="28"/>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="E23" s="1"/>
+      <c r="H23" s="1"/>
       <c r="AA23" s="15"/>
     </row>
-    <row r="24" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="27"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="28"/>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="E24" s="1"/>
+      <c r="F24" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="1"/>
       <c r="AA24" s="15"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="E25" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="24"/>
+      <c r="E25" s="1"/>
+      <c r="H25" s="1"/>
       <c r="AA25" s="15"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A26" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
+      <c r="E26" s="1"/>
+      <c r="H26" s="1"/>
       <c r="AA26" s="15"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="E27" s="1"/>
-      <c r="H27" s="1"/>
+    <row r="27" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A27" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
       <c r="AA27" s="15"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="E28" s="1"/>
-      <c r="F28" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28" s="1"/>
+    <row r="28" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
       <c r="AA28" s="15"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="E29" s="1"/>
-      <c r="H29" s="1"/>
+    <row r="29" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="F29" s="23"/>
       <c r="AA29" s="15"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="E30" s="1"/>
-      <c r="H30" s="1"/>
+    <row r="30" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E30" s="23"/>
       <c r="AA30" s="15"/>
     </row>
-    <row r="31" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="AA31" s="15"/>
     </row>
-    <row r="32" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="AA32" s="15"/>
     </row>
-    <row r="33" spans="5:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="F33" s="23"/>
+    <row r="33" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA33" s="15"/>
     </row>
-    <row r="34" spans="5:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="E34" s="23"/>
+    <row r="34" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA34" s="15"/>
     </row>
-    <row r="35" spans="5:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA35" s="15"/>
     </row>
-    <row r="36" spans="5:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA36" s="15"/>
     </row>
-    <row r="37" spans="5:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA37" s="15"/>
     </row>
-    <row r="38" spans="5:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA38" s="15"/>
     </row>
-    <row r="39" spans="5:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA39" s="15"/>
     </row>
-    <row r="40" spans="5:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA40" s="15"/>
     </row>
-    <row r="41" spans="5:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA41" s="15"/>
     </row>
-    <row r="42" spans="5:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA42" s="15"/>
     </row>
-    <row r="43" spans="5:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA43" s="15"/>
     </row>
-    <row r="44" spans="5:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA44" s="15"/>
     </row>
-    <row r="45" spans="5:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA45" s="15"/>
     </row>
-    <row r="46" spans="5:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA46" s="15"/>
     </row>
-    <row r="47" spans="5:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA47" s="15"/>
-    </row>
-    <row r="48" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="AA48" s="15"/>
-    </row>
-    <row r="49" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA49" s="15"/>
-    </row>
-    <row r="50" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA50" s="15"/>
-    </row>
-    <row r="51" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA51" s="15"/>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="22">
-    <mergeCell ref="B24:E24"/>
+  <mergeCells count="18">
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E1:J2"/>
+    <mergeCell ref="E3:J3"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="B20:E20"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B9:F9"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="F31:J31"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A18:I18"/>
     <mergeCell ref="E6:J6"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E1:J2"/>
-    <mergeCell ref="E3:J3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1"/>
